--- a/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -52,7 +52,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:33:00+00:00</t>
+    <t>2024-05-23T12:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include ValueSets 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include ValueSets 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include ValueSets 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSet #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include ValueSet #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include ValueSet #4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:16:26+00:00</t>
+    <t>2024-12-09T16:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
